--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\javaSeleniumFramework\testDataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\javaSeleniumFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,24 +24,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
-    <t>S.no</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>23/05/2020</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Input Field 1</t>
+  </si>
+  <si>
+    <t>Input Field 2</t>
+  </si>
+  <si>
+    <t>Input Field 3</t>
+  </si>
+  <si>
+    <t>Input Field 4</t>
+  </si>
+  <si>
+    <t>Input Field 5</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>29-08-2020-15-00-03</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>With Valid Data</t>
+  </si>
+  <si>
+    <t>Data 1</t>
+  </si>
+  <si>
+    <t>Data 2</t>
+  </si>
+  <si>
+    <t>Data 3</t>
+  </si>
+  <si>
+    <t>Data 4</t>
+  </si>
+  <si>
+    <t>Data 5</t>
   </si>
 </sst>
 </file>
@@ -91,9 +142,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,50 +426,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\javaSeleniumFramework\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\SeleniumDD\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -32,67 +32,49 @@
     <t>Test Case</t>
   </si>
   <si>
-    <t>Input Field 1</t>
-  </si>
-  <si>
-    <t>Input Field 2</t>
-  </si>
-  <si>
-    <t>Input Field 3</t>
-  </si>
-  <si>
-    <t>Input Field 4</t>
-  </si>
-  <si>
-    <t>Input Field 5</t>
+    <t>End Time</t>
   </si>
   <si>
     <t>Result</t>
   </si>
   <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>With Valid Data</t>
+  </si>
+  <si>
+    <t>Data 1</t>
+  </si>
+  <si>
+    <t>29-08-2020-15-00-03</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>Inputput Field 1</t>
+  </si>
+  <si>
+    <t>Inputput Field 2</t>
+  </si>
+  <si>
+    <t>Data 2</t>
+  </si>
+  <si>
     <t>Start Time</t>
-  </si>
-  <si>
-    <t>End Time</t>
-  </si>
-  <si>
-    <t>29-08-2020-15-00-03</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>TC_001</t>
-  </si>
-  <si>
-    <t>TC_002</t>
-  </si>
-  <si>
-    <t>TC_003</t>
-  </si>
-  <si>
-    <t>TC_004</t>
-  </si>
-  <si>
-    <t>TC_005</t>
-  </si>
-  <si>
-    <t>With Valid Data</t>
-  </si>
-  <si>
-    <t>Data 1</t>
-  </si>
-  <si>
-    <t>Data 2</t>
-  </si>
-  <si>
-    <t>Data 3</t>
-  </si>
-  <si>
-    <t>Data 4</t>
-  </si>
-  <si>
-    <t>Data 5</t>
   </si>
 </sst>
 </file>
@@ -426,26 +408,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" customWidth="1"/>
+    <col min="3" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,188 +430,134 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Start Time</t>
+  </si>
+  <si>
+    <t>23/09/2020</t>
   </si>
 </sst>
 </file>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,6 +563,52 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -32,59 +35,122 @@
     <t>Test Case</t>
   </si>
   <si>
-    <t>End Time</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>TC_001</t>
-  </si>
-  <si>
-    <t>With Valid Data</t>
-  </si>
-  <si>
-    <t>Data 1</t>
-  </si>
-  <si>
-    <t>29-08-2020-15-00-03</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>TC_002</t>
-  </si>
-  <si>
-    <t>TC_003</t>
-  </si>
-  <si>
-    <t>TC_004</t>
-  </si>
-  <si>
-    <t>TC_005</t>
-  </si>
-  <si>
-    <t>Inputput Field 1</t>
-  </si>
-  <si>
-    <t>Inputput Field 2</t>
-  </si>
-  <si>
-    <t>Data 2</t>
-  </si>
-  <si>
-    <t>Start Time</t>
-  </si>
-  <si>
-    <t>23/09/2020</t>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin </t>
+  </si>
+  <si>
+    <t>flL@9O8aTI</t>
+  </si>
+  <si>
+    <t>TC_LO_001</t>
+  </si>
+  <si>
+    <t>TC_AE_001</t>
+  </si>
+  <si>
+    <t>Add Employee</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Australian Regional HQ</t>
+  </si>
+  <si>
+    <t>Blood Group</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Hobbies</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Region-2</t>
+  </si>
+  <si>
+    <t>FTE</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Sub unit-2</t>
+  </si>
+  <si>
+    <t>TC_AL_001</t>
+  </si>
+  <si>
+    <t>Assign Leave to Employee</t>
+  </si>
+  <si>
+    <t>Roy Miller</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Leave Type</t>
+  </si>
+  <si>
+    <t>Vacation Leave - Australia</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>01-11-2020</t>
+  </si>
+  <si>
+    <t>05-11-2020</t>
+  </si>
+  <si>
+    <t>TC_LL_001</t>
+  </si>
+  <si>
+    <t>Cancle leave</t>
+  </si>
+  <si>
+    <t>Leave Action</t>
+  </si>
+  <si>
+    <t>Cancle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,11 +160,29 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -127,10 +211,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,206 +498,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="3" max="4" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -9,13 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -35,122 +32,35 @@
     <t>Test Case</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>User Name</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t xml:space="preserve">Admin </t>
-  </si>
-  <si>
-    <t>flL@9O8aTI</t>
-  </si>
-  <si>
     <t>TC_LO_001</t>
   </si>
   <si>
-    <t>TC_AE_001</t>
-  </si>
-  <si>
-    <t>Add Employee</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>MM</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Australian Regional HQ</t>
-  </si>
-  <si>
-    <t>Blood Group</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>Hobbies</t>
-  </si>
-  <si>
-    <t>Tech</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Region-2</t>
-  </si>
-  <si>
-    <t>FTE</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Sub unit-2</t>
-  </si>
-  <si>
-    <t>TC_AL_001</t>
-  </si>
-  <si>
-    <t>Assign Leave to Employee</t>
-  </si>
-  <si>
-    <t>Roy Miller</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Leave Type</t>
-  </si>
-  <si>
-    <t>Vacation Leave - Australia</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>01-11-2020</t>
-  </si>
-  <si>
-    <t>05-11-2020</t>
-  </si>
-  <si>
-    <t>TC_LL_001</t>
-  </si>
-  <si>
-    <t>Cancle leave</t>
-  </si>
-  <si>
-    <t>Leave Action</t>
-  </si>
-  <si>
-    <t>Cancle</t>
+    <t>Login with valid details</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>TC_LO_002</t>
+  </si>
+  <si>
+    <t>Login with invalid details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,24 +75,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -211,12 +103,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -498,272 +387,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
     <col min="3" max="4" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>123456</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>TC_LO_001</t>
-  </si>
-  <si>
     <t>Login with valid details</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
   </si>
   <si>
     <t>TC_LO_002</t>
-  </si>
-  <si>
-    <t>Login with invalid details</t>
   </si>
 </sst>
 </file>
@@ -387,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,30 +410,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
